--- a/gelv/static/gelv/xlsx/invoice.xlsx
+++ b/gelv/static/gelv/xlsx/invoice.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <workbookPr date1904="0"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0"/>
+    <workbookView xWindow="360" yWindow="15" windowWidth="20955" windowHeight="9720" activeTab="0" showHorizontalScroll="1" showVerticalScroll="1"/>
   </bookViews>
   <sheets>
     <sheet name="invoice" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr/>
+  <calcPr fullCalcOnLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{D0CA8CA8-9F24-4464-BF8E-62219DCF47F9}"/>
   </extLst>
@@ -16,18 +16,18 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t xml:space="preserve">RĒĶINS Nr.</t>
   </si>
   <si>
-    <t>GK0042025</t>
+    <t>GK1000013</t>
   </si>
   <si>
     <t>Datums:</t>
   </si>
   <si>
-    <t>18.08.2025.</t>
+    <t>10.09.2025</t>
   </si>
   <si>
     <t>Izplatītājs:</t>
@@ -60,63 +60,24 @@
     <t>Pasūtītājs:</t>
   </si>
   <si>
-    <r>
-      <t>"NOSAUKUMS/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="4"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">VĀRDS UZVARDS</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t>"</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Registrācijas numurs/</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="4"/>
-        <rFont val="Times New Roman"/>
-      </rPr>
-      <t xml:space="preserve">personālais kods</t>
-    </r>
-  </si>
-  <si>
-    <t>ADRESE</t>
+    <t>test</t>
   </si>
   <si>
     <t xml:space="preserve">Pieg. adrese:</t>
   </si>
   <si>
-    <t>e-mails</t>
+    <t>test@test.com</t>
   </si>
   <si>
     <t>Tālrunis:</t>
   </si>
   <si>
-    <t>NUMURS</t>
+    <t>1111</t>
   </si>
   <si>
     <t>E-mail:</t>
   </si>
   <si>
-    <t>KONTAKTMAILS</t>
-  </si>
-  <si>
     <t>Nosaukums</t>
   </si>
   <si>
@@ -129,19 +90,22 @@
     <t>Summa,eur</t>
   </si>
   <si>
-    <t xml:space="preserve">Pievienotās vērtības nodoklis       NAV</t>
+    <t xml:space="preserve">Pievienotās vērtības nodoklis</t>
+  </si>
+  <si>
+    <t>NAV</t>
   </si>
   <si>
     <t xml:space="preserve">Pavisam apmaksai</t>
   </si>
   <si>
-    <t>79.00</t>
+    <t>4.50</t>
   </si>
   <si>
     <t xml:space="preserve">Summa vārdiem:</t>
   </si>
   <si>
-    <t xml:space="preserve">Septiņdesmit deviņi eiro 00 centi</t>
+    <t xml:space="preserve">Četri eiro 00 centi</t>
   </si>
   <si>
     <t xml:space="preserve">Lūdzam rēķinu apmaksāt 5 darbā dienu laikā!</t>
@@ -270,28 +234,43 @@
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="none"/>
-      <right style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1"/>
+      </left>
+      <right style="thin">
+        <color theme="1"/>
       </right>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
+      <left style="thin">
+        <color theme="1"/>
       </left>
       <right style="none"/>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1"/>
+      </bottom>
+      <diagonal style="none"/>
+    </border>
+    <border>
+      <left style="none"/>
+      <right style="thin">
+        <color theme="1"/>
+      </right>
+      <top style="thin">
+        <color theme="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
@@ -299,125 +278,110 @@
       <left style="none"/>
       <right style="none"/>
       <top style="none"/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
     <border>
       <left style="none"/>
       <right style="none"/>
-      <top style="medium">
-        <color auto="1"/>
+      <top style="thin">
+        <color theme="1"/>
       </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal style="none"/>
-    </border>
-    <border>
-      <left style="none"/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="none"/>
-      <bottom style="medium">
-        <color auto="1"/>
+      <bottom style="thin">
+        <color theme="1"/>
       </bottom>
       <diagonal style="none"/>
     </border>
   </borders>
   <cellStyleXfs count="2">
     <xf fontId="0" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyProtection="0"/>
+    <xf fontId="1" fillId="0" borderId="0" numFmtId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
   </cellStyleXfs>
-  <cellXfs count="27">
-    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0"/>
-    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+  <cellXfs count="30">
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="0" fillId="0" borderId="0" numFmtId="0" xfId="0" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="2" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="3" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="5" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="2" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="4" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="11" vertical="center"/>
     </xf>
-    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="2" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="4" fillId="3" borderId="1" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf fontId="1" fillId="3" borderId="1" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="6" fillId="3" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf fontId="6" fillId="3" borderId="0" numFmtId="0" xfId="1" applyFont="1" applyFill="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="7" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment vertical="center"/>
     </xf>
-    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="4" fillId="4" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="0" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="6" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf fontId="8" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="2" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="4" fillId="4" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="3" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="4" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="0" borderId="5" numFmtId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf fontId="0" fillId="0" borderId="6" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="0" fillId="0" borderId="5" numFmtId="0" xfId="0" applyBorder="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="4" fillId="2" borderId="2" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf fontId="4" fillId="2" borderId="0" numFmtId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" quotePrefix="0" pivotButton="0">
       <alignment horizontal="left" indent="1" vertical="center"/>
     </xf>
-    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
-    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1"/>
+    <xf fontId="9" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
+    <xf fontId="10" fillId="0" borderId="0" numFmtId="0" xfId="0" applyFont="1" quotePrefix="0" pivotButton="0"/>
   </cellXfs>
   <cellStyles count="2">
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -903,219 +867,230 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac">
+  <sheetPr>
+    <outlinePr applyStyles="0" summaryBelow="1" summaryRight="1" showOutlineSymbols="1"/>
+    <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
+  </sheetPr>
   <sheetViews>
     <sheetView zoomScale="100" workbookViewId="0">
       <selection activeCell="C31" activeCellId="0" sqref="C31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.25"/>
   <cols>
-    <col customWidth="1" min="1" max="1" width="18.54296875"/>
-    <col customWidth="1" min="2" max="2" width="37.54296875"/>
-    <col customWidth="1" min="3" max="3" width="12.26953125"/>
-    <col customWidth="1" min="5" max="5" width="11.26953125"/>
+    <col customWidth="1" min="1" max="1" style="1" width="18.54296875"/>
+    <col customWidth="1" min="2" max="2" style="1" width="40.57421875"/>
+    <col customWidth="1" min="3" max="3" style="1" width="12.26953125"/>
+    <col min="4" max="4" style="1" width="9.140625"/>
+    <col customWidth="1" min="5" max="5" style="1" width="11.26953125"/>
+    <col min="6" max="16384" style="1" width="9.140625"/>
   </cols>
   <sheetData>
     <row r="1" ht="17.25">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" ht="15">
-      <c r="A2" s="3" t="s">
+      <c r="A2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" ht="15">
-      <c r="A3" s="4"/>
+      <c r="A3" s="5"/>
     </row>
     <row r="4" ht="15">
-      <c r="A4" s="4"/>
+      <c r="A4" s="5"/>
     </row>
     <row r="5" ht="17.25">
-      <c r="A5" s="5" t="s">
+      <c r="A5" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="7" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" ht="15">
-      <c r="A6" s="5" t="s">
+      <c r="A6" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B6" s="7">
+      <c r="B6" s="8">
         <v>40203653845</v>
       </c>
     </row>
     <row r="7" ht="15">
-      <c r="A7" s="5" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
-      <c r="B7" s="7" t="s">
+      <c r="B7" s="8" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" ht="15">
-      <c r="A8" s="8"/>
+      <c r="A8" s="9"/>
     </row>
     <row r="9" ht="15">
-      <c r="A9" s="5" t="s">
+      <c r="A9" s="6" t="s">
         <v>9</v>
       </c>
-      <c r="B9" s="7" t="s">
+      <c r="B9" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="10" ht="15">
-      <c r="A10" s="5" t="s">
+      <c r="A10" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="B10" s="7" t="s">
+      <c r="B10" s="8" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="11" ht="15">
-      <c r="A11" s="5" t="s">
+      <c r="A11" s="6" t="s">
         <v>12</v>
       </c>
-      <c r="B11" s="7">
+      <c r="B11" s="8">
         <v>37125415276</v>
       </c>
     </row>
     <row r="14" ht="15">
-      <c r="A14" s="4"/>
+      <c r="A14" s="5"/>
     </row>
     <row r="15" ht="17.25">
-      <c r="A15" s="5" t="s">
+      <c r="A15" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="B15" s="9" t="s">
+      <c r="B15" s="10" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" ht="15">
-      <c r="A16" s="5" t="s">
+      <c r="A16" s="6" t="s">
         <v>6</v>
       </c>
-      <c r="B16" s="10" t="s">
+      <c r="B16" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" ht="15">
+      <c r="A17" s="6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B17" s="11" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" ht="15">
+      <c r="A18" s="6" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" ht="15">
-      <c r="A17" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="B17" s="10" t="s">
+      <c r="B18" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="18" ht="15">
-      <c r="A18" s="5" t="s">
+    <row r="19" ht="15">
+      <c r="A19" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="11" t="s">
+      <c r="B19" s="11" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="19" ht="28.5">
-      <c r="A19" s="5" t="s">
+      <c r="C19" s="6" t="s">
         <v>19</v>
       </c>
-      <c r="B19" s="10" t="s">
+      <c r="D19" s="13" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="20" ht="14.25">
+      <c r="A20" s="14"/>
+      <c r="D20" s="15"/>
+    </row>
+    <row r="21" ht="15">
+      <c r="A21" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="C19" s="5" t="s">
+      <c r="B21" s="17"/>
+      <c r="C21" s="16" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="12" t="s">
+      <c r="D21" s="16" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="20" ht="15">
-      <c r="A20" s="13"/>
-      <c r="D20" s="14"/>
-    </row>
-    <row r="21" ht="15">
-      <c r="A21" s="15" t="s">
+      <c r="E21" s="18" t="s">
         <v>23</v>
       </c>
-      <c r="B21" s="15"/>
-      <c r="C21" s="16" t="s">
+    </row>
+    <row r="22" ht="15">
+      <c r="A22" s="19" t="s">
         <v>24</v>
       </c>
-      <c r="D21" s="16" t="s">
+      <c r="B22" s="20"/>
+      <c r="C22" s="21" t="s">
         <v>25</v>
       </c>
-      <c r="E21" s="17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="22" ht="15">
-      <c r="A22" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="B22" s="19"/>
-      <c r="C22" s="20"/>
       <c r="D22" s="21"/>
       <c r="E22" s="22"/>
     </row>
     <row r="23" ht="15">
-      <c r="A23" s="18" t="s">
+      <c r="A23" s="19" t="s">
+        <v>26</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" ht="15">
+      <c r="A24" s="5"/>
+    </row>
+    <row r="25" ht="15">
+      <c r="A25" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="B23" s="20"/>
-      <c r="C23" s="20"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="23" t="s">
+      <c r="B25" s="27" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="24" ht="15">
-      <c r="A24" s="4"/>
-    </row>
-    <row r="25" ht="15">
-      <c r="A25" s="5" t="s">
+    <row r="26"/>
+    <row r="27"/>
+    <row r="28">
+      <c r="A28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B25" s="24" t="s">
+    </row>
+    <row r="29"/>
+    <row r="30"/>
+    <row r="31"/>
+    <row r="32">
+      <c r="A32" s="29" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="28">
-      <c r="A28" s="25" t="s">
+      <c r="B32" s="29"/>
+      <c r="C32" s="29"/>
+      <c r="D32" s="29"/>
+      <c r="E32" s="29"/>
+    </row>
+    <row r="33">
+      <c r="A33" s="29" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="26" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="26"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="26"/>
-      <c r="E32" s="26"/>
-    </row>
-    <row r="33">
-      <c r="A33" s="26" t="s">
-        <v>34</v>
-      </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="26"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="26"/>
+      <c r="B33" s="29"/>
+      <c r="C33" s="29"/>
+      <c r="D33" s="29"/>
+      <c r="E33" s="29"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
+  <mergeCells count="1">
     <mergeCell ref="A21:B21"/>
-    <mergeCell ref="A22:D22"/>
-    <mergeCell ref="A23:D23"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink r:id="rId1" ref="B18"/>
